--- a/biology/Zoologie/Arbanitis_gwennethae/Arbanitis_gwennethae.xlsx
+++ b/biology/Zoologie/Arbanitis_gwennethae/Arbanitis_gwennethae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis gwennethae est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis gwennethae est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la cordillère australienne de Foxground à Batemans Bay[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la cordillère australienne de Foxground à Batemans Bay.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 11,66 mm de long sur 9,41 mm et l'abdomen 8,92 mm de long sur 6,27 mm et la carapace de la femelle paratype mesure 10,88 mm de long sur 8,13 mm et l'abdomen 11,56 mm de long sur 7,64 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 11,66 mm de long sur 9,41 mm et l'abdomen 8,92 mm de long sur 6,27 mm et la carapace de la femelle paratype mesure 10,88 mm de long sur 8,13 mm et l'abdomen 11,56 mm de long sur 7,64 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence à Gwenneth Wishart, l'épouse de Graham Wishart[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence à Gwenneth Wishart, l'épouse de Graham Wishart.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wishart, 2011 : Trapdoor spiders of the genus Misgolas (Mygalomorphae: Idiopidae) in the Illawarra amd south coast regions of New South Wales, Australia. Records of the Australian Museum, vol. 63, no 1, p. 33-51 (texte intégral).</t>
         </is>
